--- a/academias/Inglés - Estadisticos 20211.xlsx
+++ b/academias/Inglés - Estadisticos 20211.xlsx
@@ -804,22 +804,25 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I8">
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -836,22 +839,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I9">
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -868,22 +874,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>77.42</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>22.58</v>
+      </c>
+      <c r="I10">
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,22 +909,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>52.38</v>
+      </c>
+      <c r="I11">
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,22 +944,25 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>17.14</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -964,22 +979,25 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>42.86</v>
+      </c>
+      <c r="I13">
+        <v>6.9</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1031,22 +1049,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>34.21</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1063,22 +1084,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>9.199999999999999</v>
       </c>
       <c r="J16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1095,22 +1119,25 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I17">
+        <v>9.5</v>
       </c>
       <c r="J17">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1127,22 +1154,25 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>8.800000000000001</v>
       </c>
       <c r="J18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1159,22 +1189,25 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I19">
+        <v>9.699999999999999</v>
       </c>
       <c r="J19">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1191,22 +1224,25 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1328,22 +1364,25 @@
         <v>31</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>29.03</v>
+      </c>
+      <c r="I24">
+        <v>6.6</v>
       </c>
       <c r="J24">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1360,22 +1399,25 @@
         <v>36</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>80.56</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>19.44</v>
+      </c>
+      <c r="I25">
+        <v>7.5</v>
       </c>
       <c r="J25">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1392,22 +1434,25 @@
         <v>43</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>20.93</v>
+      </c>
+      <c r="I26">
+        <v>7.5</v>
       </c>
       <c r="J26">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1424,22 +1469,25 @@
         <v>44</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>86.36</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>13.64</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1456,22 +1504,25 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>12.5</v>
+      </c>
+      <c r="I28">
+        <v>7.1</v>
       </c>
       <c r="J28">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1488,22 +1539,25 @@
         <v>26</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>11.54</v>
+      </c>
+      <c r="I29">
+        <v>6.7</v>
       </c>
       <c r="J29">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1555,22 +1609,25 @@
         <v>44</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>70.45</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>29.55</v>
+      </c>
+      <c r="I31">
+        <v>7.1</v>
       </c>
       <c r="J31">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1587,22 +1644,25 @@
         <v>43</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>69.77</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>30.23</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1619,22 +1679,25 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I33">
+        <v>6.9</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1651,22 +1714,25 @@
         <v>34</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>44.12</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>55.88</v>
+      </c>
+      <c r="I34">
+        <v>9.5</v>
       </c>
       <c r="J34">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1683,22 +1749,25 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>44.12</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>55.88</v>
+      </c>
+      <c r="I35">
+        <v>9.5</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>55.88</v>
       </c>
     </row>
   </sheetData>
@@ -3117,22 +3186,25 @@
         <v>28</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I8">
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3149,22 +3221,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I9">
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3181,22 +3256,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>77.42</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>22.58</v>
+      </c>
+      <c r="I10">
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3213,22 +3291,25 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>52.38</v>
+      </c>
+      <c r="I11">
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3245,22 +3326,25 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>17.14</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3277,22 +3361,25 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>42.86</v>
+      </c>
+      <c r="I13">
+        <v>6.9</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3344,22 +3431,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>34.21</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3376,22 +3466,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>9.199999999999999</v>
       </c>
       <c r="J16">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3408,22 +3501,25 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I17">
+        <v>9.5</v>
       </c>
       <c r="J17">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3440,22 +3536,25 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>8.800000000000001</v>
       </c>
       <c r="J18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3472,22 +3571,25 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I19">
+        <v>9.699999999999999</v>
       </c>
       <c r="J19">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3504,22 +3606,25 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3641,22 +3746,25 @@
         <v>31</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>29.03</v>
+      </c>
+      <c r="I24">
+        <v>6.6</v>
       </c>
       <c r="J24">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3673,22 +3781,25 @@
         <v>36</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>80.56</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>19.44</v>
+      </c>
+      <c r="I25">
+        <v>7.5</v>
       </c>
       <c r="J25">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3705,22 +3816,25 @@
         <v>43</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>20.93</v>
+      </c>
+      <c r="I26">
+        <v>7.5</v>
       </c>
       <c r="J26">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3737,22 +3851,25 @@
         <v>44</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>86.36</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>13.64</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3769,22 +3886,25 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>12.5</v>
+      </c>
+      <c r="I28">
+        <v>7.1</v>
       </c>
       <c r="J28">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3801,22 +3921,25 @@
         <v>26</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>11.54</v>
+      </c>
+      <c r="I29">
+        <v>6.7</v>
       </c>
       <c r="J29">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3868,22 +3991,25 @@
         <v>44</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>70.45</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>29.55</v>
+      </c>
+      <c r="I31">
+        <v>7.1</v>
       </c>
       <c r="J31">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3900,22 +4026,25 @@
         <v>43</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>69.77</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>30.23</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3932,22 +4061,25 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I33">
+        <v>6.9</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3964,22 +4096,25 @@
         <v>34</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>44.12</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>55.88</v>
+      </c>
+      <c r="I34">
+        <v>9.5</v>
       </c>
       <c r="J34">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3996,22 +4131,25 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>44.12</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>55.88</v>
+      </c>
+      <c r="I35">
+        <v>9.5</v>
       </c>
       <c r="J35">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>55.88</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Inglés - Estadisticos 20211.xlsx
+++ b/academias/Inglés - Estadisticos 20211.xlsx
@@ -591,28 +591,28 @@
         <v>51</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>57.14</v>
+        <v>55.56</v>
       </c>
       <c r="H2">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
       <c r="I2">
         <v>7.6</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -661,28 +661,28 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>8.1</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -696,28 +696,28 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>68.56999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="H5">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
       <c r="I5">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -766,28 +766,28 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>61.76</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>38.24</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>7.9</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>38.24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1049,25 +1049,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>65.79000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="H15">
-        <v>34.21</v>
+        <v>31.58</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>34.21</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1084,25 +1084,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>80</v>
+        <v>82.86</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>17.14</v>
       </c>
       <c r="I16">
         <v>9.199999999999999</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1189,25 +1189,25 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H19">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
       <c r="I19">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1224,25 +1224,25 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>66.67</v>
+        <v>69.7</v>
       </c>
       <c r="H20">
-        <v>33.33</v>
+        <v>30.3</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>33.33</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1294,25 +1294,25 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H22">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
       <c r="I22">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1329,25 +1329,25 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>22.86</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>8.6</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K23">
-        <v>22.86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1466,22 +1466,22 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>38</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>86.36</v>
+        <v>88.37</v>
       </c>
       <c r="H27">
-        <v>13.64</v>
+        <v>11.63</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1571,28 +1571,28 @@
         <v>52</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>27</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>69.23</v>
+        <v>67.5</v>
       </c>
       <c r="H30">
-        <v>30.77</v>
+        <v>32.5</v>
       </c>
       <c r="I30">
         <v>6.3</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30">
-        <v>30.77</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1676,28 +1676,28 @@
         <v>52</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>12</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="H33">
-        <v>33.33</v>
+        <v>42.86</v>
       </c>
       <c r="I33">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>33.33</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1833,13 +1833,13 @@
         <v>51</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>100</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -1897,13 +1897,13 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -1929,13 +1929,13 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -1993,13 +1993,13 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -2633,13 +2633,13 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>100</v>
       </c>
       <c r="J27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>100</v>
@@ -2729,13 +2729,13 @@
         <v>52</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>100</v>
       </c>
       <c r="J30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>100</v>
@@ -2825,13 +2825,13 @@
         <v>52</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K33">
         <v>100</v>
@@ -2973,28 +2973,28 @@
         <v>51</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>57.14</v>
+        <v>55.56</v>
       </c>
       <c r="H2">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
       <c r="I2">
         <v>7.6</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3043,28 +3043,28 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>8.1</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3078,28 +3078,28 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>68.56999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="H5">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
       <c r="I5">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5">
-        <v>31.43</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3148,28 +3148,28 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>61.76</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>38.24</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>7.9</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>38.24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3431,25 +3431,25 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>65.79000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="H15">
-        <v>34.21</v>
+        <v>31.58</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>34.21</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3466,25 +3466,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>80</v>
+        <v>82.86</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>17.14</v>
       </c>
       <c r="I16">
         <v>9.199999999999999</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3571,25 +3571,25 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H19">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
       <c r="I19">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3606,25 +3606,25 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>66.67</v>
+        <v>69.7</v>
       </c>
       <c r="H20">
-        <v>33.33</v>
+        <v>30.3</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>33.33</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3676,25 +3676,25 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H22">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
       <c r="I22">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>21.05</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3711,25 +3711,25 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>22.86</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>8.6</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K23">
-        <v>22.86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3848,22 +3848,22 @@
         <v>52</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>38</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>86.36</v>
+        <v>88.37</v>
       </c>
       <c r="H27">
-        <v>13.64</v>
+        <v>11.63</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3953,28 +3953,28 @@
         <v>52</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>27</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>69.23</v>
+        <v>67.5</v>
       </c>
       <c r="H30">
-        <v>30.77</v>
+        <v>32.5</v>
       </c>
       <c r="I30">
         <v>6.3</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30">
-        <v>30.77</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4058,28 +4058,28 @@
         <v>52</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>12</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="H33">
-        <v>33.33</v>
+        <v>42.86</v>
       </c>
       <c r="I33">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>33.33</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="34" spans="1:11">

--- a/academias/Inglés - Estadisticos 20211.xlsx
+++ b/academias/Inglés - Estadisticos 20211.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="54">
   <si>
     <t>Docente</t>
   </si>
@@ -535,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,41 +1735,6 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>19</v>
-      </c>
-      <c r="G35">
-        <v>44.12</v>
-      </c>
-      <c r="H35">
-        <v>55.88</v>
-      </c>
-      <c r="I35">
-        <v>9.5</v>
-      </c>
-      <c r="J35">
-        <v>19</v>
-      </c>
-      <c r="K35">
-        <v>55.88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1777,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2878,38 +2843,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>100</v>
-      </c>
-      <c r="J35">
-        <v>34</v>
-      </c>
-      <c r="K35">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2917,7 +2850,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4117,41 +4050,6 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>19</v>
-      </c>
-      <c r="G35">
-        <v>44.12</v>
-      </c>
-      <c r="H35">
-        <v>55.88</v>
-      </c>
-      <c r="I35">
-        <v>9.5</v>
-      </c>
-      <c r="J35">
-        <v>19</v>
-      </c>
-      <c r="K35">
-        <v>55.88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
